--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="H2">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="I2">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="J2">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="N2">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="O2">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="P2">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="Q2">
-        <v>223.5654229187337</v>
+        <v>4219.935548582962</v>
       </c>
       <c r="R2">
-        <v>223.5654229187337</v>
+        <v>37979.41993724666</v>
       </c>
       <c r="S2">
-        <v>0.1620775676919495</v>
+        <v>0.55068617521956</v>
       </c>
       <c r="T2">
-        <v>0.1620775676919495</v>
+        <v>0.5506861752195596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="H3">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="I3">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="J3">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="N3">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="O3">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="P3">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="Q3">
-        <v>288.4831717450369</v>
+        <v>1256.526866245149</v>
       </c>
       <c r="R3">
-        <v>288.4831717450369</v>
+        <v>11308.74179620634</v>
       </c>
       <c r="S3">
-        <v>0.2091407972935538</v>
+        <v>0.1639721664150808</v>
       </c>
       <c r="T3">
-        <v>0.2091407972935538</v>
+        <v>0.1639721664150807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="H4">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="I4">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="J4">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="N4">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="O4">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="P4">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="Q4">
-        <v>1.545423681506129</v>
+        <v>10.938658088028</v>
       </c>
       <c r="R4">
-        <v>1.545423681506129</v>
+        <v>98.44792279225203</v>
       </c>
       <c r="S4">
-        <v>0.001120381265054125</v>
+        <v>0.001427454925597952</v>
       </c>
       <c r="T4">
-        <v>0.001120381265054125</v>
+        <v>0.001427454925597951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="H5">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="I5">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="J5">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="N5">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="O5">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="P5">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="Q5">
-        <v>41.72580937372923</v>
+        <v>199.212680755119</v>
       </c>
       <c r="R5">
-        <v>41.72580937372923</v>
+        <v>1792.914126796071</v>
       </c>
       <c r="S5">
-        <v>0.03024983740768479</v>
+        <v>0.02599652718798272</v>
       </c>
       <c r="T5">
-        <v>0.03024983740768479</v>
+        <v>0.0259965271879827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="H6">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="I6">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="J6">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="N6">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="O6">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="P6">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="Q6">
-        <v>288.4831717450369</v>
+        <v>1256.526866245149</v>
       </c>
       <c r="R6">
-        <v>288.4831717450369</v>
+        <v>11308.74179620634</v>
       </c>
       <c r="S6">
-        <v>0.2091407972935538</v>
+        <v>0.1639721664150808</v>
       </c>
       <c r="T6">
-        <v>0.2091407972935538</v>
+        <v>0.1639721664150807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="H7">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="I7">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="J7">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="N7">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="O7">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="P7">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="Q7">
-        <v>372.2513942163945</v>
+        <v>374.1430994428409</v>
       </c>
       <c r="R7">
-        <v>372.2513942163945</v>
+        <v>3367.287894985568</v>
       </c>
       <c r="S7">
-        <v>0.2698699993802781</v>
+        <v>0.04882430787033121</v>
       </c>
       <c r="T7">
-        <v>0.2698699993802781</v>
+        <v>0.04882430787033118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="H8">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="I8">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="J8">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="N8">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="O8">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="P8">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="Q8">
-        <v>1.994175662364565</v>
+        <v>3.257091870252</v>
       </c>
       <c r="R8">
-        <v>1.994175662364565</v>
+        <v>29.313826832268</v>
       </c>
       <c r="S8">
-        <v>0.001445711669930366</v>
+        <v>0.0004250385921107475</v>
       </c>
       <c r="T8">
-        <v>0.001445711669930366</v>
+        <v>0.0004250385921107473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="H9">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="I9">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="J9">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="N9">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="O9">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="P9">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="Q9">
-        <v>53.84192991300689</v>
+        <v>59.31751387757099</v>
       </c>
       <c r="R9">
-        <v>53.84192991300689</v>
+        <v>533.857624898139</v>
       </c>
       <c r="S9">
-        <v>0.03903362571104161</v>
+        <v>0.007740718895989214</v>
       </c>
       <c r="T9">
-        <v>0.03903362571104161</v>
+        <v>0.007740718895989209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="H10">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="I10">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="J10">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="N10">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="O10">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="P10">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="Q10">
-        <v>1.545423681506129</v>
+        <v>10.938658088028</v>
       </c>
       <c r="R10">
-        <v>1.545423681506129</v>
+        <v>98.44792279225203</v>
       </c>
       <c r="S10">
-        <v>0.001120381265054125</v>
+        <v>0.001427454925597952</v>
       </c>
       <c r="T10">
-        <v>0.001120381265054125</v>
+        <v>0.001427454925597951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,52 +1086,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="H11">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="I11">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="J11">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="N11">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="O11">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="P11">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="Q11">
-        <v>1.994175662364565</v>
+        <v>3.257091870252</v>
       </c>
       <c r="R11">
-        <v>1.994175662364565</v>
+        <v>29.313826832268</v>
       </c>
       <c r="S11">
-        <v>0.001445711669930366</v>
+        <v>0.0004250385921107475</v>
       </c>
       <c r="T11">
-        <v>0.001445711669930366</v>
+        <v>0.0004250385921107473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="H12">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="I12">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="J12">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="N12">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="O12">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="P12">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="Q12">
-        <v>0.01068293264754147</v>
+        <v>0.028354518544</v>
       </c>
       <c r="R12">
-        <v>0.01068293264754147</v>
+        <v>0.2551906668960001</v>
       </c>
       <c r="S12">
-        <v>7.744774289000091E-06</v>
+        <v>3.700161101377655E-06</v>
       </c>
       <c r="T12">
-        <v>7.744774289000091E-06</v>
+        <v>3.700161101377653E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,52 +1210,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="H13">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="I13">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="J13">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="N13">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="O13">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="P13">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="Q13">
-        <v>0.2884348263443745</v>
+        <v>0.516386891812</v>
       </c>
       <c r="R13">
-        <v>0.2884348263443745</v>
+        <v>4.647482026308</v>
       </c>
       <c r="S13">
-        <v>0.0002091057484705016</v>
+        <v>6.738660321031595E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002091057484705016</v>
+        <v>6.738660321031591E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="H14">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="I14">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="J14">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.9521042973467</v>
+        <v>64.96103100000001</v>
       </c>
       <c r="N14">
-        <v>14.9521042973467</v>
+        <v>194.883093</v>
       </c>
       <c r="O14">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482214</v>
       </c>
       <c r="P14">
-        <v>0.4025885836582422</v>
+        <v>0.7420823237482211</v>
       </c>
       <c r="Q14">
-        <v>41.72580937372923</v>
+        <v>199.212680755119</v>
       </c>
       <c r="R14">
-        <v>41.72580937372923</v>
+        <v>1792.914126796071</v>
       </c>
       <c r="S14">
-        <v>0.03024983740768479</v>
+        <v>0.02599652718798272</v>
       </c>
       <c r="T14">
-        <v>0.03024983740768479</v>
+        <v>0.0259965271879827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,52 +1334,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="H15">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="I15">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="J15">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.2938175127784</v>
+        <v>19.342779</v>
       </c>
       <c r="N15">
-        <v>19.2938175127784</v>
+        <v>58.02833699999999</v>
       </c>
       <c r="O15">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="P15">
-        <v>0.5194901340548038</v>
+        <v>0.2209622317735119</v>
       </c>
       <c r="Q15">
-        <v>53.84192991300689</v>
+        <v>59.31751387757099</v>
       </c>
       <c r="R15">
-        <v>53.84192991300689</v>
+        <v>533.857624898139</v>
       </c>
       <c r="S15">
-        <v>0.03903362571104161</v>
+        <v>0.007740718895989214</v>
       </c>
       <c r="T15">
-        <v>0.03903362571104161</v>
+        <v>0.007740718895989209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,52 +1396,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="H16">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="I16">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="J16">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.103358273241872</v>
+        <v>0.168388</v>
       </c>
       <c r="N16">
-        <v>0.103358273241872</v>
+        <v>0.5051640000000001</v>
       </c>
       <c r="O16">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="P16">
-        <v>0.002782943457743993</v>
+        <v>0.001923580282020393</v>
       </c>
       <c r="Q16">
-        <v>0.2884348263443745</v>
+        <v>0.516386891812</v>
       </c>
       <c r="R16">
-        <v>0.2884348263443745</v>
+        <v>4.647482026308</v>
       </c>
       <c r="S16">
-        <v>0.0002091057484705016</v>
+        <v>6.738660321031595E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002091057484705016</v>
+        <v>6.738660321031591E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="H17">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="I17">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="J17">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.79063124119149</v>
+        <v>3.066649</v>
       </c>
       <c r="N17">
-        <v>2.79063124119149</v>
+        <v>9.199947</v>
       </c>
       <c r="O17">
-        <v>0.07513833882921007</v>
+        <v>0.0350318641962465</v>
       </c>
       <c r="P17">
-        <v>0.07513833882921007</v>
+        <v>0.03503186419624649</v>
       </c>
       <c r="Q17">
-        <v>7.787622724313957</v>
+        <v>9.404336089200999</v>
       </c>
       <c r="R17">
-        <v>7.787622724313957</v>
+        <v>84.639024802809</v>
       </c>
       <c r="S17">
-        <v>0.005645769962013178</v>
+        <v>0.001227231509064258</v>
       </c>
       <c r="T17">
-        <v>0.005645769962013178</v>
+        <v>0.001227231509064257</v>
       </c>
     </row>
   </sheetData>
